--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="188">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,490 +79,508 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.888+/-0.002</t>
+  </si>
+  <si>
+    <t>0.818+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.862+/-0.003</t>
+  </si>
+  <si>
+    <t>0.801+/-0.014</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.924+/-0.003</t>
+  </si>
+  <si>
+    <t>0.848+/-0.022</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>9.924+/-0.108</t>
+  </si>
+  <si>
+    <t>0.767+/-0.003</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.773+/-0.004</t>
+  </si>
+  <si>
+    <t>0.762+/-0.012</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.757+/-0.007</t>
+  </si>
+  <si>
+    <t>0.745+/-0.019</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>1.852+/-0.036</t>
+  </si>
+  <si>
+    <t>0.88+/-0.002</t>
+  </si>
+  <si>
+    <t>0.854+/-0.0</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.912+/-0.003</t>
+  </si>
+  <si>
+    <t>0.885+/-0.011</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.842+/-0.003</t>
+  </si>
+  <si>
+    <t>0.814+/-0.018</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>7.618+/-0.074</t>
+  </si>
+  <si>
+    <t>0.717+/-0.004</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.708+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.014</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.737+/-0.007</t>
+  </si>
+  <si>
+    <t>0.719+/-0.015</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.777+/-0.014</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.905+/-0.002</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.874+/-0.003</t>
+  </si>
+  <si>
+    <t>0.826+/-0.013</t>
+  </si>
+  <si>
+    <t>0.945+/-0.002</t>
+  </si>
+  <si>
+    <t>0.886+/-0.01</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>11.8+/-0.936</t>
+  </si>
+  <si>
+    <t>0.795+/-0.004</t>
+  </si>
+  <si>
+    <t>0.788+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.792+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.018</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.801+/-0.005</t>
+  </si>
+  <si>
+    <t>0.791+/-0.016</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>2.192+/-0.032</t>
+  </si>
+  <si>
+    <t>0.906+/-0.002</t>
+  </si>
+  <si>
+    <t>0.888+/-0.0</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.929+/-0.003</t>
+  </si>
+  <si>
+    <t>0.911+/-0.009</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.879+/-0.002</t>
+  </si>
+  <si>
+    <t>0.86+/-0.012</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>9.692+/-0.537</t>
+  </si>
+  <si>
+    <t>0.735+/-0.002</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.739+/-0.003</t>
+  </si>
+  <si>
+    <t>0.725+/-0.019</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.727+/-0.007</t>
+  </si>
+  <si>
+    <t>0.716+/-0.016</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.91+/-0.093</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.889+/-0.002</t>
-  </si>
-  <si>
-    <t>0.819+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.868+/-0.004</t>
-  </si>
-  <si>
-    <t>0.806+/-0.015</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.916+/-0.004</t>
-  </si>
-  <si>
-    <t>0.841+/-0.013</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>8.05+/-0.01</t>
-  </si>
-  <si>
-    <t>0.772+/-0.003</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.777+/-0.004</t>
-  </si>
-  <si>
-    <t>0.766+/-0.015</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.765+/-0.009</t>
-  </si>
-  <si>
-    <t>0.752+/-0.012</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>1.579+/-0.009</t>
-  </si>
-  <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.91+/-0.003</t>
-  </si>
-  <si>
-    <t>0.885+/-0.015</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.842+/-0.002</t>
-  </si>
-  <si>
-    <t>0.815+/-0.016</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>6.681+/-0.016</t>
-  </si>
-  <si>
-    <t>0.719+/-0.002</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.716+/-0.005</t>
-  </si>
-  <si>
-    <t>0.699+/-0.013</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.728+/-0.011</t>
-  </si>
-  <si>
-    <t>0.712+/-0.022</t>
+    <t>0.855+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.855+/-0.004</t>
+  </si>
+  <si>
+    <t>0.746+/-0.014</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.856+/-0.003</t>
+  </si>
+  <si>
+    <t>0.73+/-0.021</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>10.214+/-0.75</t>
+  </si>
+  <si>
+    <t>0.697+/-0.003</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.697+/-0.002</t>
+  </si>
+  <si>
+    <t>0.685+/-0.008</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.696+/-0.004</t>
+  </si>
+  <si>
+    <t>0.682+/-0.013</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>1.565+/-0.037</t>
+  </si>
+  <si>
+    <t>0.808+/-0.001</t>
+  </si>
+  <si>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.869+/-0.006</t>
+  </si>
+  <si>
+    <t>0.823+/-0.011</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.726+/-0.005</t>
+  </si>
+  <si>
+    <t>0.691+/-0.019</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>6.518+/-0.423</t>
+  </si>
+  <si>
+    <t>0.679+/-0.003</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.667+/-0.003</t>
+  </si>
+  <si>
+    <t>0.627+/-0.01</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.717+/-0.006</t>
+  </si>
+  <si>
+    <t>0.682+/-0.014</t>
   </si>
   <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>0.588+/-0.006</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.907+/-0.002</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.881+/-0.002</t>
-  </si>
-  <si>
-    <t>0.831+/-0.01</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.941+/-0.001</t>
-  </si>
-  <si>
-    <t>0.888+/-0.011</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>8.672+/-0.013</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.791+/-0.0</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.791+/-0.015</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.799+/-0.004</t>
-  </si>
-  <si>
-    <t>0.793+/-0.015</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>1.707+/-0.005</t>
-  </si>
-  <si>
-    <t>0.905+/-0.002</t>
-  </si>
-  <si>
-    <t>0.884+/-0.0</t>
-  </si>
-  <si>
-    <t>0.815</t>
-  </si>
-  <si>
-    <t>0.926+/-0.003</t>
-  </si>
-  <si>
-    <t>0.906+/-0.01</t>
+    <t>0.73+/-0.023</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
+    <t>0.84+/-0.004</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.835+/-0.004</t>
+  </si>
+  <si>
+    <t>0.719+/-0.008</t>
+  </si>
+  <si>
+    <t>0.848+/-0.004</t>
+  </si>
+  <si>
+    <t>0.701+/-0.021</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>9.894+/-0.753</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.674+/-0.003</t>
+  </si>
+  <si>
+    <t>0.655+/-0.015</t>
   </si>
   <si>
     <t>0.366</t>
   </si>
   <si>
-    <t>0.88+/-0.002</t>
-  </si>
-  <si>
-    <t>0.858+/-0.014</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>7.299+/-0.014</t>
-  </si>
-  <si>
-    <t>0.74+/-0.003</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.742+/-0.005</t>
-  </si>
-  <si>
-    <t>0.725+/-0.014</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.737+/-0.005</t>
-  </si>
-  <si>
-    <t>0.723+/-0.015</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.619+/-0.003</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.856+/-0.003</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.858+/-0.004</t>
-  </si>
-  <si>
-    <t>0.753+/-0.011</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.853+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.019</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>7.579+/-0.021</t>
-  </si>
-  <si>
-    <t>0.702+/-0.003</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.705+/-0.003</t>
-  </si>
-  <si>
-    <t>0.692+/-0.014</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.694+/-0.004</t>
-  </si>
-  <si>
-    <t>0.677+/-0.019</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>1.228+/-0.011</t>
-  </si>
-  <si>
-    <t>0.811+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.873+/-0.005</t>
-  </si>
-  <si>
-    <t>0.829+/-0.014</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.728+/-0.003</t>
-  </si>
-  <si>
-    <t>0.689+/-0.024</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>5.045+/-0.013</t>
-  </si>
-  <si>
-    <t>0.675+/-0.002</t>
-  </si>
-  <si>
-    <t>0.637+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.665+/-0.003</t>
-  </si>
-  <si>
-    <t>0.628+/-0.007</t>
-  </si>
-  <si>
-    <t>0.705+/-0.01</t>
-  </si>
-  <si>
-    <t>0.673+/-0.024</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.54+/-0.003</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.842+/-0.003</t>
-  </si>
-  <si>
-    <t>0.713+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.84+/-0.004</t>
-  </si>
-  <si>
-    <t>0.718+/-0.012</t>
+    <t>0.682+/-0.005</t>
+  </si>
+  <si>
+    <t>0.665+/-0.013</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>1.477+/-0.021</t>
+  </si>
+  <si>
+    <t>0.789+/-0.002</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.847+/-0.006</t>
+  </si>
+  <si>
+    <t>0.786+/-0.011</t>
   </si>
   <si>
     <t>0.416</t>
   </si>
   <si>
-    <t>0.844+/-0.005</t>
-  </si>
-  <si>
-    <t>0.701+/-0.018</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>7.231+/-0.022</t>
+    <t>0.705+/-0.006</t>
+  </si>
+  <si>
+    <t>0.655+/-0.022</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>6.093+/-0.42</t>
   </si>
   <si>
     <t>0.674+/-0.004</t>
   </si>
   <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.655+/-0.013</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.673+/-0.008</t>
-  </si>
-  <si>
-    <t>0.655+/-0.028</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>1.207+/-0.007</t>
-  </si>
-  <si>
-    <t>0.787+/-0.002</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.844+/-0.007</t>
-  </si>
-  <si>
-    <t>0.789+/-0.016</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.704+/-0.005</t>
-  </si>
-  <si>
-    <t>0.659+/-0.02</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>5.011+/-0.03</t>
-  </si>
-  <si>
-    <t>0.669+/-0.004</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
+    <t>0.624+/-0.0</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.657+/-0.005</t>
+  </si>
+  <si>
+    <t>0.611+/-0.014</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.73+/-0.004</t>
+  </si>
+  <si>
+    <t>0.683+/-0.019</t>
   </si>
   <si>
     <t>0.583</t>
   </si>
   <si>
-    <t>0.657+/-0.003</t>
-  </si>
-  <si>
-    <t>0.606+/-0.011</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.652+/-0.016</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.526+/-0.003</t>
+    <t>0.71+/-0.021</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1202,7 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>81</v>
@@ -1204,7 +1222,7 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>82</v>
@@ -1224,7 +1242,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -1244,7 +1262,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>84</v>
@@ -1281,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1301,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -1321,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>
@@ -1341,7 +1359,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -1361,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -1411,16 +1429,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1431,16 +1449,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1448,19 +1466,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1468,19 +1486,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1488,19 +1506,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1511,16 +1529,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1528,19 +1546,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1548,19 +1566,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1571,16 +1589,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1588,19 +1606,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1641,16 +1659,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,16 +1679,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1678,19 +1696,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1698,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1718,19 +1736,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,16 +1759,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1758,19 +1776,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1778,19 +1796,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,16 +1819,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1818,19 +1836,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="233">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,526 +61,661 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.888+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.862+/-0.003</t>
-  </si>
-  <si>
-    <t>0.801+/-0.014</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.924+/-0.003</t>
-  </si>
-  <si>
-    <t>0.848+/-0.022</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>9.924+/-0.108</t>
-  </si>
-  <si>
-    <t>0.767+/-0.003</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.773+/-0.004</t>
-  </si>
-  <si>
-    <t>0.762+/-0.012</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.757+/-0.007</t>
-  </si>
-  <si>
-    <t>0.745+/-0.019</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>1.852+/-0.036</t>
-  </si>
-  <si>
-    <t>0.88+/-0.002</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.912+/-0.003</t>
-  </si>
-  <si>
-    <t>0.885+/-0.011</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.842+/-0.003</t>
-  </si>
-  <si>
-    <t>0.814+/-0.018</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>7.618+/-0.074</t>
-  </si>
-  <si>
-    <t>0.717+/-0.004</t>
-  </si>
-  <si>
-    <t>0.7+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.708+/-0.004</t>
-  </si>
-  <si>
-    <t>0.693+/-0.014</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.737+/-0.007</t>
-  </si>
-  <si>
-    <t>0.719+/-0.015</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.777+/-0.014</t>
+    <t>0.887+/-0.004</t>
+  </si>
+  <si>
+    <t>0.745+/-0.0</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.86+/-0.008</t>
+  </si>
+  <si>
+    <t>0.405+/-0.02</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.924+/-0.006</t>
+  </si>
+  <si>
+    <t>0.568+/-0.048</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.961+/-0.002</t>
+  </si>
+  <si>
+    <t>0.762+/-0.019</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>13.177+/-0.098</t>
+  </si>
+  <si>
+    <t>0.761+/-0.005</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.758+/-0.006</t>
+  </si>
+  <si>
+    <t>0.355+/-0.012</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.766+/-0.007</t>
+  </si>
+  <si>
+    <t>0.55+/-0.032</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.846+/-0.004</t>
+  </si>
+  <si>
+    <t>0.72+/-0.017</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>2.274+/-0.053</t>
+  </si>
+  <si>
+    <t>0.872+/-0.003</t>
+  </si>
+  <si>
+    <t>0.786+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.891+/-0.005</t>
+  </si>
+  <si>
+    <t>0.468+/-0.024</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.847+/-0.005</t>
+  </si>
+  <si>
+    <t>0.439+/-0.033</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.943+/-0.001</t>
+  </si>
+  <si>
+    <t>0.751+/-0.018</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>9.06+/-0.09</t>
+  </si>
+  <si>
+    <t>0.721+/-0.003</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.708+/-0.003</t>
+  </si>
+  <si>
+    <t>0.335+/-0.018</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.752+/-0.009</t>
+  </si>
+  <si>
+    <t>0.649+/-0.056</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.805+/-0.003</t>
+  </si>
+  <si>
+    <t>0.732+/-0.021</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>1.208+/-0.029</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
   </si>
   <si>
     <t>0.85</t>
   </si>
   <si>
-    <t>0.905+/-0.002</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
+    <t>0.91+/-0.003</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.882+/-0.006</t>
+  </si>
+  <si>
+    <t>0.35+/-0.021</t>
+  </si>
+  <si>
+    <t>0.945+/-0.004</t>
+  </si>
+  <si>
+    <t>0.543+/-0.046</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.976+/-0.001</t>
+  </si>
+  <si>
+    <t>0.776+/-0.015</t>
   </si>
   <si>
     <t>0.755</t>
   </si>
   <si>
-    <t>0.874+/-0.003</t>
-  </si>
-  <si>
-    <t>0.826+/-0.013</t>
-  </si>
-  <si>
-    <t>0.945+/-0.002</t>
-  </si>
-  <si>
-    <t>0.886+/-0.01</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>11.8+/-0.936</t>
-  </si>
-  <si>
-    <t>0.795+/-0.004</t>
-  </si>
-  <si>
-    <t>0.788+/-0.0</t>
+    <t>14.168+/-0.195</t>
+  </si>
+  <si>
+    <t>0.798+/-0.002</t>
+  </si>
+  <si>
+    <t>0.753+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.799+/-0.003</t>
+  </si>
+  <si>
+    <t>0.308+/-0.019</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.796+/-0.003</t>
+  </si>
+  <si>
+    <t>0.519+/-0.033</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.887+/-0.001</t>
+  </si>
+  <si>
+    <t>0.74+/-0.018</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>2.775+/-0.027</t>
+  </si>
+  <si>
+    <t>0.906+/-0.002</t>
+  </si>
+  <si>
+    <t>0.829+/-0.0</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.93+/-0.003</t>
+  </si>
+  <si>
+    <t>0.421+/-0.036</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.878+/-0.004</t>
+  </si>
+  <si>
+    <t>0.36+/-0.033</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.966+/-0.001</t>
+  </si>
+  <si>
+    <t>0.76+/-0.015</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>11.699+/-0.196</t>
+  </si>
+  <si>
+    <t>0.739+/-0.004</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.743+/-0.004</t>
+  </si>
+  <si>
+    <t>0.295+/-0.019</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.731+/-0.013</t>
+  </si>
+  <si>
+    <t>0.631+/-0.039</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.831+/-0.002</t>
+  </si>
+  <si>
+    <t>0.754+/-0.017</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>1.232+/-0.044</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.854+/-0.005</t>
+  </si>
+  <si>
+    <t>0.663+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.854+/-0.006</t>
+  </si>
+  <si>
+    <t>0.396+/-0.028</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.854+/-0.009</t>
+  </si>
+  <si>
+    <t>0.413+/-0.034</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.939+/-0.003</t>
+  </si>
+  <si>
+    <t>0.631+/-0.024</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>13.049+/-0.118</t>
+  </si>
+  <si>
+    <t>0.698+/-0.003</t>
+  </si>
+  <si>
+    <t>0.624+/-0.0</t>
   </si>
   <si>
     <t>0.726</t>
   </si>
   <si>
-    <t>0.792+/-0.004</t>
-  </si>
-  <si>
-    <t>0.786+/-0.018</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.801+/-0.005</t>
-  </si>
-  <si>
-    <t>0.791+/-0.016</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>2.192+/-0.032</t>
-  </si>
-  <si>
-    <t>0.906+/-0.002</t>
-  </si>
-  <si>
-    <t>0.888+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.929+/-0.003</t>
-  </si>
-  <si>
-    <t>0.911+/-0.009</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.86+/-0.012</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>9.692+/-0.537</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.739+/-0.003</t>
-  </si>
-  <si>
-    <t>0.725+/-0.019</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.727+/-0.007</t>
-  </si>
-  <si>
-    <t>0.716+/-0.016</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.91+/-0.093</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.855+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.855+/-0.004</t>
-  </si>
-  <si>
-    <t>0.746+/-0.014</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.856+/-0.003</t>
-  </si>
-  <si>
-    <t>0.73+/-0.021</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>10.214+/-0.75</t>
-  </si>
-  <si>
-    <t>0.697+/-0.003</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
+    <t>0.699+/-0.003</t>
+  </si>
+  <si>
+    <t>0.36+/-0.018</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.697+/-0.007</t>
+  </si>
+  <si>
+    <t>0.461+/-0.028</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.776+/-0.003</t>
+  </si>
+  <si>
+    <t>0.611+/-0.018</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>2.073+/-0.039</t>
+  </si>
+  <si>
+    <t>0.809+/-0.003</t>
+  </si>
+  <si>
+    <t>0.685+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.862+/-0.006</t>
+  </si>
+  <si>
+    <t>0.404+/-0.028</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.736+/-0.004</t>
+  </si>
+  <si>
+    <t>0.291+/-0.027</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.89+/-0.002</t>
+  </si>
+  <si>
+    <t>0.623+/-0.015</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>8.306+/-0.207</t>
+  </si>
+  <si>
+    <t>0.681+/-0.004</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.668+/-0.004</t>
+  </si>
+  <si>
+    <t>0.36+/-0.016</t>
+  </si>
+  <si>
+    <t>0.718+/-0.015</t>
+  </si>
+  <si>
+    <t>0.585+/-0.026</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.756+/-0.003</t>
+  </si>
+  <si>
+    <t>0.634+/-0.018</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>1.092+/-0.043</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.844+/-0.007</t>
+  </si>
+  <si>
+    <t>0.634+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.843+/-0.008</t>
+  </si>
+  <si>
+    <t>0.406+/-0.018</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.846+/-0.009</t>
+  </si>
+  <si>
+    <t>0.41+/-0.022</t>
+  </si>
+  <si>
+    <t>0.931+/-0.004</t>
+  </si>
+  <si>
+    <t>0.608+/-0.012</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>12.73+/-0.095</t>
+  </si>
+  <si>
+    <t>0.677+/-0.005</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.675+/-0.005</t>
+  </si>
+  <si>
+    <t>0.373+/-0.017</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.682+/-0.01</t>
+  </si>
+  <si>
+    <t>0.46+/-0.025</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.748+/-0.004</t>
+  </si>
+  <si>
+    <t>0.586+/-0.008</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>2.056+/-0.062</t>
+  </si>
+  <si>
+    <t>0.787+/-0.004</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.847+/-0.007</t>
+  </si>
+  <si>
+    <t>0.419+/-0.021</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.701+/-0.008</t>
+  </si>
+  <si>
+    <t>0.296+/-0.024</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.871+/-0.003</t>
+  </si>
+  <si>
+    <t>0.602+/-0.01</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>7.912+/-0.095</t>
+  </si>
+  <si>
+    <t>0.676+/-0.005</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66+/-0.005</t>
+  </si>
+  <si>
+    <t>0.375+/-0.009</t>
+  </si>
+  <si>
+    <t>0.726+/-0.011</t>
+  </si>
+  <si>
+    <t>0.575+/-0.024</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.747+/-0.005</t>
+  </si>
+  <si>
+    <t>0.611+/-0.017</t>
   </si>
   <si>
     <t>0.617</t>
   </si>
   <si>
-    <t>0.697+/-0.002</t>
-  </si>
-  <si>
-    <t>0.685+/-0.008</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.696+/-0.004</t>
-  </si>
-  <si>
-    <t>0.682+/-0.013</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>1.565+/-0.037</t>
-  </si>
-  <si>
-    <t>0.808+/-0.001</t>
-  </si>
-  <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.869+/-0.006</t>
-  </si>
-  <si>
-    <t>0.823+/-0.011</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>0.726+/-0.005</t>
-  </si>
-  <si>
-    <t>0.691+/-0.019</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>6.518+/-0.423</t>
-  </si>
-  <si>
-    <t>0.679+/-0.003</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.667+/-0.003</t>
-  </si>
-  <si>
-    <t>0.627+/-0.01</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.717+/-0.006</t>
-  </si>
-  <si>
-    <t>0.682+/-0.014</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.73+/-0.023</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.001+/-0.001</t>
-  </si>
-  <si>
-    <t>0.84+/-0.004</t>
-  </si>
-  <si>
-    <t>0.714+/-0.0</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.835+/-0.004</t>
-  </si>
-  <si>
-    <t>0.719+/-0.008</t>
-  </si>
-  <si>
-    <t>0.848+/-0.004</t>
-  </si>
-  <si>
-    <t>0.701+/-0.021</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>9.894+/-0.753</t>
-  </si>
-  <si>
-    <t>0.676+/-0.002</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.674+/-0.003</t>
-  </si>
-  <si>
-    <t>0.655+/-0.015</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.682+/-0.005</t>
-  </si>
-  <si>
-    <t>0.665+/-0.013</t>
-  </si>
-  <si>
-    <t>0.447</t>
-  </si>
-  <si>
-    <t>1.477+/-0.021</t>
-  </si>
-  <si>
-    <t>0.789+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.847+/-0.006</t>
-  </si>
-  <si>
-    <t>0.786+/-0.011</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.705+/-0.006</t>
-  </si>
-  <si>
-    <t>0.655+/-0.022</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>6.093+/-0.42</t>
-  </si>
-  <si>
-    <t>0.674+/-0.004</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.657+/-0.005</t>
-  </si>
-  <si>
-    <t>0.611+/-0.014</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.73+/-0.004</t>
-  </si>
-  <si>
-    <t>0.683+/-0.019</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.71+/-0.021</t>
+    <t>1.059+/-0.043</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,19 +1101,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -986,19 +1121,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1006,19 +1141,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1026,19 +1161,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1046,19 +1181,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1066,19 +1201,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1086,19 +1221,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1106,19 +1241,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1126,19 +1261,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1146,19 +1281,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,19 +1391,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1216,19 +1411,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1236,19 +1431,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1256,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1276,19 +1471,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1296,19 +1491,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1316,19 +1511,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1336,19 +1531,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1356,19 +1551,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1376,19 +1571,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1426,19 +1681,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1446,19 +1701,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1466,19 +1721,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1486,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1506,19 +1761,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1526,19 +1781,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1546,19 +1801,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1566,19 +1821,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1586,19 +1841,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1606,19 +1861,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1943,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1656,19 +1971,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1676,19 +1991,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1696,19 +2011,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1716,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1736,19 +2051,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1756,19 +2071,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1776,19 +2091,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1796,19 +2111,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1816,19 +2131,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1836,19 +2151,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
